--- a/04/sales_dataset.xlsx
+++ b/04/sales_dataset.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angelica\Documents\Work\Books\OReilly - Excel\Learning-Generative-AI-Tools-for-Excel\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DE639-8BB0-48C7-B839-783C6F633023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930EF625-8AB1-4314-93A5-EECD66863937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="28740" windowHeight="15350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="3100" windowWidth="32710" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -366,6 +379,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -394,20 +421,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -422,7 +435,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FD50CE5-E8D4-4687-98AC-4A577655399D}" name="Table1" displayName="Table1" ref="A1:J31" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FD50CE5-E8D4-4687-98AC-4A577655399D}" name="MainTable" displayName="MainTable" ref="A1:J31" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:J31" xr:uid="{3FD50CE5-E8D4-4687-98AC-4A577655399D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{74BB7AC9-F1BE-4E1A-9AB3-AC97797E1969}" name="Transaction ID"/>
@@ -730,7 +743,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
